--- a/QALegend/Files/QALegend.xlsx
+++ b/QALegend/Files/QALegend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD24621D-2632-494A-86DF-F194CE5EEA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564B9441-86EE-41BF-9E0A-DA2419131E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>TestCases</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Test OBS Product Description</t>
   </si>
   <si>
-    <t>"C:\Users\Thomas\Desktop\RestaurantLogo.jpg"</t>
-  </si>
-  <si>
     <t>Test OBS Waiter</t>
   </si>
   <si>
@@ -142,6 +139,21 @@
   </si>
   <si>
     <t>Test OBS Category</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>OBS</t>
+  </si>
+  <si>
+    <t>testobs</t>
+  </si>
+  <si>
+    <t>OBSuser</t>
+  </si>
+  <si>
+    <t>obs@obs.com</t>
   </si>
 </sst>
 </file>
@@ -189,9 +201,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +505,7 @@
     <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -544,41 +557,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>1234</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>1234</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -592,18 +605,18 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -620,7 +633,7 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>200</v>
@@ -644,10 +657,30 @@
         <v>27</v>
       </c>
       <c r="N7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
